--- a/i18n/en.xlsx
+++ b/i18n/en.xlsx
@@ -16,16 +16,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
+    <t>hello</t>
+  </si>
+  <si>
+    <t>world</t>
+  </si>
+  <si>
     <t>这是一个道具</t>
   </si>
   <si>
     <t>this is test text.</t>
-  </si>
-  <si>
-    <t>hello</t>
-  </si>
-  <si>
-    <t>world</t>
   </si>
 </sst>
 </file>

--- a/i18n/en.xlsx
+++ b/i18n/en.xlsx
@@ -16,16 +16,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
+    <t>这是一个道具</t>
+  </si>
+  <si>
+    <t>this is test text.</t>
+  </si>
+  <si>
     <t>hello</t>
   </si>
   <si>
     <t>world</t>
-  </si>
-  <si>
-    <t>这是一个道具</t>
-  </si>
-  <si>
-    <t>this is test text.</t>
   </si>
 </sst>
 </file>

--- a/i18n/en.xlsx
+++ b/i18n/en.xlsx
@@ -14,12 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>hello</t>
   </si>
   <si>
     <t>world</t>
+  </si>
+  <si>
+    <t>世界</t>
+  </si>
+  <si>
+    <t>woorld</t>
+  </si>
+  <si>
+    <t>你好</t>
+  </si>
+  <si>
+    <t>hellllo</t>
   </si>
   <si>
     <t>这是一个道具</t>
@@ -351,6 +363,22 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>